--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.8517401660368</v>
+        <v>301.8811117914701</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.6013853679605</v>
+        <v>413.0470552078016</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.6759198171521</v>
+        <v>373.6264239739512</v>
       </c>
       <c r="AD2" t="n">
-        <v>213851.7401660368</v>
+        <v>301881.1117914701</v>
       </c>
       <c r="AE2" t="n">
-        <v>292601.3853679604</v>
+        <v>413047.0552078016</v>
       </c>
       <c r="AF2" t="n">
         <v>8.623303749321718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>264675.9198171521</v>
+        <v>373626.4239739512</v>
       </c>
     </row>
     <row r="3">
@@ -2958,19 +2958,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.3976937519732</v>
+        <v>244.6716984959781</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.6726655394969</v>
+        <v>334.770612035565</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.9439058810659</v>
+        <v>302.8205746764953</v>
       </c>
       <c r="AD3" t="n">
-        <v>166397.6937519732</v>
+        <v>244671.6984959781</v>
       </c>
       <c r="AE3" t="n">
-        <v>227672.6655394969</v>
+        <v>334770.612035565</v>
       </c>
       <c r="AF3" t="n">
         <v>1.045941490975117e-05</v>
@@ -2979,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>205943.9058810659</v>
+        <v>302820.5746764953</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.0504345733358</v>
+        <v>233.5027636580689</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.8292860944061</v>
+        <v>319.4887826517161</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.2764559830147</v>
+        <v>288.9972216408538</v>
       </c>
       <c r="AD4" t="n">
-        <v>165050.4345733358</v>
+        <v>233502.7636580689</v>
       </c>
       <c r="AE4" t="n">
-        <v>225829.2860944061</v>
+        <v>319488.7826517161</v>
       </c>
       <c r="AF4" t="n">
         <v>1.087081470561828e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>204276.4559830147</v>
+        <v>288997.2216408537</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.6709788943368</v>
+        <v>231.910818219561</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.2594128082542</v>
+        <v>317.3106126710745</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.1925495508337</v>
+        <v>287.0269331460831</v>
       </c>
       <c r="AD5" t="n">
-        <v>153670.9788943368</v>
+        <v>231910.818219561</v>
       </c>
       <c r="AE5" t="n">
-        <v>210259.4128082542</v>
+        <v>317310.6126710745</v>
       </c>
       <c r="AF5" t="n">
         <v>1.130993848421303e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>190192.5495508337</v>
+        <v>287026.9331460831</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.1756881374987</v>
+        <v>221.6953370299363</v>
       </c>
       <c r="AB6" t="n">
-        <v>209.5817341440626</v>
+        <v>303.333340632214</v>
       </c>
       <c r="AC6" t="n">
-        <v>189.5795475872243</v>
+        <v>274.3836323333825</v>
       </c>
       <c r="AD6" t="n">
-        <v>153175.6881374987</v>
+        <v>221695.3370299363</v>
       </c>
       <c r="AE6" t="n">
-        <v>209581.7341440626</v>
+        <v>303333.340632214</v>
       </c>
       <c r="AF6" t="n">
         <v>1.142071387606825e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>189579.5475872243</v>
+        <v>274383.6323333825</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.6711397443069</v>
+        <v>221.1907886367444</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.8913887733938</v>
+        <v>302.6429952615452</v>
       </c>
       <c r="AC7" t="n">
-        <v>188.9550878098261</v>
+        <v>273.7591725559843</v>
       </c>
       <c r="AD7" t="n">
-        <v>152671.1397443069</v>
+        <v>221190.7886367444</v>
       </c>
       <c r="AE7" t="n">
-        <v>208891.3887733938</v>
+        <v>302642.9952615452</v>
       </c>
       <c r="AF7" t="n">
         <v>1.153546705674961e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH7" t="n">
-        <v>188955.0878098261</v>
+        <v>273759.1725559843</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.0454599375715</v>
+        <v>220.4636236035238</v>
       </c>
       <c r="AB8" t="n">
-        <v>208.0353060587738</v>
+        <v>301.648055982836</v>
       </c>
       <c r="AC8" t="n">
-        <v>188.1807084279696</v>
+        <v>272.8591888856288</v>
       </c>
       <c r="AD8" t="n">
-        <v>152045.4599375715</v>
+        <v>220463.6236035238</v>
       </c>
       <c r="AE8" t="n">
-        <v>208035.3060587738</v>
+        <v>301648.0559828359</v>
       </c>
       <c r="AF8" t="n">
         <v>1.1641300347336e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>188180.7084279696</v>
+        <v>272859.1888856288</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>151.7597981491361</v>
+        <v>220.1779618150884</v>
       </c>
       <c r="AB9" t="n">
-        <v>207.6444509973281</v>
+        <v>301.2572009213903</v>
       </c>
       <c r="AC9" t="n">
-        <v>187.8271560250196</v>
+        <v>272.5056364826788</v>
       </c>
       <c r="AD9" t="n">
-        <v>151759.7981491361</v>
+        <v>220177.9618150884</v>
       </c>
       <c r="AE9" t="n">
-        <v>207644.4509973281</v>
+        <v>301257.2009213903</v>
       </c>
       <c r="AF9" t="n">
         <v>1.167137484164272e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH9" t="n">
-        <v>187827.1560250196</v>
+        <v>272505.6364826788</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.490593865397</v>
+        <v>262.8676672585597</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.7964137939754</v>
+        <v>359.6671392461737</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.5744402670562</v>
+        <v>325.3410122725184</v>
       </c>
       <c r="AD2" t="n">
-        <v>185490.593865397</v>
+        <v>262867.6672585597</v>
       </c>
       <c r="AE2" t="n">
-        <v>253796.4137939754</v>
+        <v>359667.1392461737</v>
       </c>
       <c r="AF2" t="n">
         <v>1.067275992169318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>229574.4402670562</v>
+        <v>325341.0122725184</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.0772621067301</v>
+        <v>229.7737863497816</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.7612603584864</v>
+        <v>314.3866313876517</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.5966769138198</v>
+        <v>284.3820125325157</v>
       </c>
       <c r="AD3" t="n">
-        <v>162077.2621067301</v>
+        <v>229773.7863497816</v>
       </c>
       <c r="AE3" t="n">
-        <v>221761.2603584864</v>
+        <v>314386.6313876517</v>
       </c>
       <c r="AF3" t="n">
         <v>1.20443039732708e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200596.6769138198</v>
+        <v>284382.0125325157</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.3584059114425</v>
+        <v>218.0207647357131</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.7270043126544</v>
+        <v>298.305628708572</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.0927077607773</v>
+        <v>269.8357581792934</v>
       </c>
       <c r="AD4" t="n">
-        <v>150358.4059114425</v>
+        <v>218020.7647357131</v>
       </c>
       <c r="AE4" t="n">
-        <v>205727.0043126544</v>
+        <v>298305.628708572</v>
       </c>
       <c r="AF4" t="n">
         <v>1.276370843805878e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>186092.7077607773</v>
+        <v>269835.7581792934</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.4978620401335</v>
+        <v>207.5480025518578</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.5495702234139</v>
+        <v>283.9763334629689</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.0276463284744</v>
+        <v>256.8740307606339</v>
       </c>
       <c r="AD5" t="n">
-        <v>149497.8620401335</v>
+        <v>207548.0025518578</v>
       </c>
       <c r="AE5" t="n">
-        <v>204549.5702234139</v>
+        <v>283976.3334629689</v>
       </c>
       <c r="AF5" t="n">
         <v>1.303850524846959e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>185027.6463284744</v>
+        <v>256874.0307606339</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.8710069041703</v>
+        <v>206.9211474158946</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.6918793714926</v>
+        <v>283.1186426110476</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.2518122876835</v>
+        <v>256.098196719843</v>
       </c>
       <c r="AD6" t="n">
-        <v>148871.0069041703</v>
+        <v>206921.1474158945</v>
       </c>
       <c r="AE6" t="n">
-        <v>203691.8793714926</v>
+        <v>283118.6426110476</v>
       </c>
       <c r="AF6" t="n">
         <v>1.319288473807163e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>184251.8122876835</v>
+        <v>256098.196719843</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.4865624139497</v>
+        <v>206.2162410459248</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.4834242906222</v>
+        <v>282.1541586173812</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.3993922180348</v>
+        <v>255.22576172487</v>
       </c>
       <c r="AD7" t="n">
-        <v>138486.5624139497</v>
+        <v>206216.2410459247</v>
       </c>
       <c r="AE7" t="n">
-        <v>189483.4242906222</v>
+        <v>282154.1586173812</v>
       </c>
       <c r="AF7" t="n">
         <v>1.335089125540887e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>171399.3922180349</v>
+        <v>255225.76172487</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.1517200911745</v>
+        <v>197.6059268504785</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.8158135510865</v>
+        <v>270.3731468749244</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.5590060824096</v>
+        <v>244.5691132083557</v>
       </c>
       <c r="AD2" t="n">
-        <v>132151.7200911745</v>
+        <v>197605.9268504785</v>
       </c>
       <c r="AE2" t="n">
-        <v>180815.8135510865</v>
+        <v>270373.1468749244</v>
       </c>
       <c r="AF2" t="n">
         <v>1.88737177208805e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>163559.0060824096</v>
+        <v>244569.1132083557</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.2714092282339</v>
+        <v>186.691450568757</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.9288922229804</v>
+        <v>255.4394789135705</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.0928716319279</v>
+        <v>231.0606935576941</v>
       </c>
       <c r="AD3" t="n">
-        <v>121271.4092282339</v>
+        <v>186691.450568757</v>
       </c>
       <c r="AE3" t="n">
-        <v>165928.8922229804</v>
+        <v>255439.4789135705</v>
       </c>
       <c r="AF3" t="n">
         <v>2.000524241262178e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>150092.871631928</v>
+        <v>231060.6935576941</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.088507553793</v>
+        <v>212.4664984531443</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.8847410051007</v>
+        <v>290.7060365438306</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.8080218636265</v>
+        <v>262.9614604246579</v>
       </c>
       <c r="AD2" t="n">
-        <v>146088.507553793</v>
+        <v>212466.4984531443</v>
       </c>
       <c r="AE2" t="n">
-        <v>199884.7410051007</v>
+        <v>290706.0365438306</v>
       </c>
       <c r="AF2" t="n">
         <v>1.529983989526547e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180808.0218636265</v>
+        <v>262961.4604246579</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.6015399339458</v>
+        <v>200.9453654145163</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.1677651383883</v>
+        <v>274.9423140438705</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.591052114714</v>
+        <v>248.7022054755654</v>
       </c>
       <c r="AD3" t="n">
-        <v>134601.5399339458</v>
+        <v>200945.3654145163</v>
       </c>
       <c r="AE3" t="n">
-        <v>184167.7651383883</v>
+        <v>274942.3140438705</v>
       </c>
       <c r="AF3" t="n">
         <v>1.647694687057213e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>166591.052114714</v>
+        <v>248702.2054755654</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.597957211491</v>
+        <v>190.4260581746591</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.7946189825813</v>
+        <v>260.5493337992227</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.3489571007941</v>
+        <v>235.6828710647876</v>
       </c>
       <c r="AD4" t="n">
-        <v>133597.957211491</v>
+        <v>190426.0581746591</v>
       </c>
       <c r="AE4" t="n">
-        <v>182794.6189825813</v>
+        <v>260549.3337992227</v>
       </c>
       <c r="AF4" t="n">
         <v>1.696805244887946e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>165348.957100794</v>
+        <v>235682.8710647876</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7168761508478</v>
+        <v>184.1570154902057</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.116108537314</v>
+        <v>251.9717530277138</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3078343190727</v>
+        <v>227.9239225633986</v>
       </c>
       <c r="AD2" t="n">
-        <v>128716.8761508478</v>
+        <v>184157.0154902057</v>
       </c>
       <c r="AE2" t="n">
-        <v>176116.108537314</v>
+        <v>251971.7530277139</v>
       </c>
       <c r="AF2" t="n">
         <v>2.275387159275443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159307.8343190727</v>
+        <v>227923.9225633986</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.2443933799682</v>
+        <v>183.934764880646</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.1554397137568</v>
+        <v>251.6676599387095</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.5841135376188</v>
+        <v>227.6488516920114</v>
       </c>
       <c r="AD3" t="n">
-        <v>119244.3933799682</v>
+        <v>183934.764880646</v>
       </c>
       <c r="AE3" t="n">
-        <v>163155.4397137568</v>
+        <v>251667.6599387095</v>
       </c>
       <c r="AF3" t="n">
         <v>2.293952754810219e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>147584.1135376188</v>
+        <v>227648.8516920114</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.3180837212035</v>
+        <v>274.6642765918659</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.2968660378509</v>
+        <v>375.8077805656768</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.8362528581838</v>
+        <v>339.9412134380204</v>
       </c>
       <c r="AD2" t="n">
-        <v>187318.0837212035</v>
+        <v>274664.2765918659</v>
       </c>
       <c r="AE2" t="n">
-        <v>256296.8660378509</v>
+        <v>375807.7805656767</v>
       </c>
       <c r="AF2" t="n">
         <v>1.015205171414175e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>231836.2528581838</v>
+        <v>339941.2134380204</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.6321107321519</v>
+        <v>230.5272918162339</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.5204287259817</v>
+        <v>315.4176108091662</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.2833913178212</v>
+        <v>285.31459672503</v>
       </c>
       <c r="AD3" t="n">
-        <v>162632.1107321519</v>
+        <v>230527.2918162339</v>
       </c>
       <c r="AE3" t="n">
-        <v>222520.4287259817</v>
+        <v>315417.6108091662</v>
       </c>
       <c r="AF3" t="n">
         <v>1.17509631779819e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201283.3913178212</v>
+        <v>285314.59672503</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.1937764871136</v>
+        <v>219.1562773789</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.8699951882359</v>
+        <v>299.8592872022618</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.1266131913914</v>
+        <v>271.2411376869193</v>
       </c>
       <c r="AD4" t="n">
-        <v>151193.7764871136</v>
+        <v>219156.2773789</v>
       </c>
       <c r="AE4" t="n">
-        <v>206869.9951882359</v>
+        <v>299859.2872022619</v>
       </c>
       <c r="AF4" t="n">
         <v>1.237685921345277e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>187126.6131913914</v>
+        <v>271241.1376869193</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.3363367581421</v>
+        <v>218.1973524234433</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.6968083234866</v>
+        <v>298.5472437734233</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.0653936344353</v>
+        <v>270.0543138414642</v>
       </c>
       <c r="AD5" t="n">
-        <v>150336.3367581421</v>
+        <v>218197.3524234433</v>
       </c>
       <c r="AE5" t="n">
-        <v>205696.8083234866</v>
+        <v>298547.2437734233</v>
       </c>
       <c r="AF5" t="n">
         <v>1.26333697622279e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>186065.3936344353</v>
+        <v>270054.3138414642</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.0183112369744</v>
+        <v>217.8793269022756</v>
       </c>
       <c r="AB6" t="n">
-        <v>205.2616717751293</v>
+        <v>298.112107225066</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.6717859075351</v>
+        <v>269.6607061145641</v>
       </c>
       <c r="AD6" t="n">
-        <v>150018.3112369744</v>
+        <v>217879.3269022756</v>
       </c>
       <c r="AE6" t="n">
-        <v>205261.6717751293</v>
+        <v>298112.1072250661</v>
       </c>
       <c r="AF6" t="n">
         <v>1.268453029566398e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>185671.7859075351</v>
+        <v>269660.706114564</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.2512761361595</v>
+        <v>207.4716939401957</v>
       </c>
       <c r="AB7" t="n">
-        <v>204.2121805109945</v>
+        <v>283.8719246539945</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.7224566166787</v>
+        <v>256.7795865818493</v>
       </c>
       <c r="AD7" t="n">
-        <v>149251.2761361595</v>
+        <v>207471.6939401957</v>
       </c>
       <c r="AE7" t="n">
-        <v>204212.1805109945</v>
+        <v>283871.9246539945</v>
       </c>
       <c r="AF7" t="n">
         <v>1.286413916210437e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>184722.4566166787</v>
+        <v>256779.5865818493</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.8934245625765</v>
+        <v>182.1517222669135</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.3069845772646</v>
+        <v>249.2280223723136</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.9120723650297</v>
+        <v>225.4420497108988</v>
       </c>
       <c r="AD2" t="n">
-        <v>117893.4245625765</v>
+        <v>182151.7222669135</v>
       </c>
       <c r="AE2" t="n">
-        <v>161306.9845772646</v>
+        <v>249228.0223723136</v>
       </c>
       <c r="AF2" t="n">
         <v>2.516708807465419e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145912.0723650297</v>
+        <v>225442.0497108988</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.8319381887927</v>
+        <v>237.5053230387553</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.0573532341514</v>
+        <v>324.9652609768258</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.0553882939822</v>
+        <v>293.9510325609024</v>
       </c>
       <c r="AD2" t="n">
-        <v>160831.9381887927</v>
+        <v>237505.3230387553</v>
       </c>
       <c r="AE2" t="n">
-        <v>220057.3532341514</v>
+        <v>324965.2609768258</v>
       </c>
       <c r="AF2" t="n">
         <v>1.259557872285893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>199055.3882939822</v>
+        <v>293951.0325609024</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.1354544054809</v>
+        <v>215.1530756641462</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.6854639925004</v>
+        <v>294.381930007343</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.3414477799491</v>
+        <v>266.2865317751628</v>
       </c>
       <c r="AD3" t="n">
-        <v>148135.4544054809</v>
+        <v>215153.0756641462</v>
       </c>
       <c r="AE3" t="n">
-        <v>202685.4639925004</v>
+        <v>294381.9300073431</v>
       </c>
       <c r="AF3" t="n">
         <v>1.399616307732416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>183341.4477799491</v>
+        <v>266286.5317751627</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.2382450001489</v>
+        <v>204.3231860665185</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.7754213331832</v>
+        <v>279.5639972788674</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.8543986656562</v>
+        <v>252.8828017491889</v>
       </c>
       <c r="AD4" t="n">
-        <v>137238.2450001489</v>
+        <v>204323.1860665185</v>
       </c>
       <c r="AE4" t="n">
-        <v>187775.4213331832</v>
+        <v>279563.9972788674</v>
       </c>
       <c r="AF4" t="n">
         <v>1.451073369618769e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>169854.3986656562</v>
+        <v>252882.8017491889</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.1964176345803</v>
+        <v>203.2813587009499</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.3499471694335</v>
+        <v>278.1385231151176</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.5649697554287</v>
+        <v>251.5933728389614</v>
       </c>
       <c r="AD5" t="n">
-        <v>136196.4176345803</v>
+        <v>203281.3587009499</v>
       </c>
       <c r="AE5" t="n">
-        <v>186349.9471694335</v>
+        <v>278138.5231151176</v>
       </c>
       <c r="AF5" t="n">
         <v>1.487443243906336e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>168564.9697554287</v>
+        <v>251593.3728389614</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.2765888045757</v>
+        <v>203.3615298709454</v>
       </c>
       <c r="AB6" t="n">
-        <v>186.4596409011236</v>
+        <v>278.2482168468077</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.6641944713224</v>
+        <v>251.6925975548551</v>
       </c>
       <c r="AD6" t="n">
-        <v>136276.5888045757</v>
+        <v>203361.5298709453</v>
       </c>
       <c r="AE6" t="n">
-        <v>186459.6409011236</v>
+        <v>278248.2168468077</v>
       </c>
       <c r="AF6" t="n">
         <v>1.486331782842737e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>168664.1944713224</v>
+        <v>251692.5975548551</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.071210023192</v>
+        <v>251.2799334906306</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.1719090334189</v>
+        <v>343.8122906899964</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.4411163117121</v>
+        <v>310.9993282102265</v>
       </c>
       <c r="AD2" t="n">
-        <v>174071.210023192</v>
+        <v>251279.9334906306</v>
       </c>
       <c r="AE2" t="n">
-        <v>238171.9090334189</v>
+        <v>343812.2906899964</v>
       </c>
       <c r="AF2" t="n">
         <v>1.121754520597116e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>215441.1163117121</v>
+        <v>310999.3282102264</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.6460885280584</v>
+        <v>218.2037215620672</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.1206243603695</v>
+        <v>298.5559583098749</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.4487612635878</v>
+        <v>270.0621966747879</v>
       </c>
       <c r="AD3" t="n">
-        <v>150646.0885280584</v>
+        <v>218203.7215620672</v>
       </c>
       <c r="AE3" t="n">
-        <v>206120.6243603695</v>
+        <v>298555.9583098749</v>
       </c>
       <c r="AF3" t="n">
         <v>1.273809448795306e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>186448.7612635878</v>
+        <v>270062.1966747878</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.4399106430208</v>
+        <v>216.8960584505443</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.4702785652491</v>
+        <v>296.7667559506654</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.9559221548783</v>
+        <v>268.4437532775793</v>
       </c>
       <c r="AD4" t="n">
-        <v>149439.9106430208</v>
+        <v>216896.0584505443</v>
       </c>
       <c r="AE4" t="n">
-        <v>204470.2785652491</v>
+        <v>296766.7559506653</v>
       </c>
       <c r="AF4" t="n">
         <v>1.321689999076811e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>184955.9221548783</v>
+        <v>268443.7532775793</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.5893965336807</v>
+        <v>206.1128641489086</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.6241264699592</v>
+        <v>282.0127137862169</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.5266659788528</v>
+        <v>255.0978161898729</v>
       </c>
       <c r="AD5" t="n">
-        <v>138589.3965336806</v>
+        <v>206112.8641489086</v>
       </c>
       <c r="AE5" t="n">
-        <v>189624.1264699592</v>
+        <v>282012.7137862169</v>
       </c>
       <c r="AF5" t="n">
         <v>1.357624101627631e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>171526.6659788528</v>
+        <v>255097.8161898729</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.1967021542833</v>
+        <v>205.7201697695112</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.0868246956147</v>
+        <v>281.4754120118723</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.0406435317437</v>
+        <v>254.6117937427638</v>
       </c>
       <c r="AD6" t="n">
-        <v>138196.7021542833</v>
+        <v>205720.1697695112</v>
       </c>
       <c r="AE6" t="n">
-        <v>189086.8246956147</v>
+        <v>281475.4120118723</v>
       </c>
       <c r="AF6" t="n">
         <v>1.364162497382781e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>171040.6435317437</v>
+        <v>254611.7937427638</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.1917724544651</v>
+        <v>205.715240069693</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.0800796628403</v>
+        <v>281.468666979098</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.0345422354307</v>
+        <v>254.6056924464508</v>
       </c>
       <c r="AD7" t="n">
-        <v>138191.772454465</v>
+        <v>205715.240069693</v>
       </c>
       <c r="AE7" t="n">
-        <v>189080.0796628403</v>
+        <v>281468.666979098</v>
       </c>
       <c r="AF7" t="n">
         <v>1.36347887629451e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>171034.5422354307</v>
+        <v>254605.6924464508</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.2454951422822</v>
+        <v>290.1110099332253</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.7212088950742</v>
+        <v>396.9426825851047</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.3113250988655</v>
+        <v>359.0590300717355</v>
       </c>
       <c r="AD2" t="n">
-        <v>202245.4951422822</v>
+        <v>290111.0099332253</v>
       </c>
       <c r="AE2" t="n">
-        <v>276721.2088950742</v>
+        <v>396942.6825851047</v>
       </c>
       <c r="AF2" t="n">
         <v>8.989705798762659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>250311.3250988655</v>
+        <v>359059.0300717355</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.0930450649474</v>
+        <v>243.1615594603351</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.8875876488712</v>
+        <v>332.704373184367</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.3291933189484</v>
+        <v>300.9515347612705</v>
       </c>
       <c r="AD3" t="n">
-        <v>165093.0450649474</v>
+        <v>243161.5594603351</v>
       </c>
       <c r="AE3" t="n">
-        <v>225887.5876488712</v>
+        <v>332704.373184367</v>
       </c>
       <c r="AF3" t="n">
         <v>1.085072700002597e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>204329.1933189484</v>
+        <v>300951.5347612705</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.6594772568192</v>
+        <v>231.9320022865122</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.9261169292431</v>
+        <v>317.3395976460523</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.5549226118595</v>
+        <v>287.0531518357297</v>
       </c>
       <c r="AD4" t="n">
-        <v>163659.4772568192</v>
+        <v>231932.0022865122</v>
       </c>
       <c r="AE4" t="n">
-        <v>223926.1169292431</v>
+        <v>317339.5976460523</v>
       </c>
       <c r="AF4" t="n">
         <v>1.136222171820695e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>202554.9226118595</v>
+        <v>287053.1518357297</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.0192146352439</v>
+        <v>221.3590594726413</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.3676401951539</v>
+        <v>302.8732308428045</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.3858864643167</v>
+        <v>273.967434776506</v>
       </c>
       <c r="AD5" t="n">
-        <v>153019.2146352439</v>
+        <v>221359.0594726413</v>
       </c>
       <c r="AE5" t="n">
-        <v>209367.6401951539</v>
+        <v>302873.2308428045</v>
       </c>
       <c r="AF5" t="n">
         <v>1.159111145135182e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>189385.8864643167</v>
+        <v>273967.434776506</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.3749551875613</v>
+        <v>220.7148000249587</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.4861359961142</v>
+        <v>301.9917266437648</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.5885117888342</v>
+        <v>273.1700601010234</v>
       </c>
       <c r="AD6" t="n">
-        <v>152374.9551875613</v>
+        <v>220714.8000249587</v>
       </c>
       <c r="AE6" t="n">
-        <v>208486.1359961142</v>
+        <v>301991.7266437648</v>
       </c>
       <c r="AF6" t="n">
         <v>1.172672246529033e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>188588.5117888341</v>
+        <v>273170.0601010234</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.6766189903442</v>
+        <v>219.9149786012564</v>
       </c>
       <c r="AB7" t="n">
-        <v>207.5306416026636</v>
+        <v>300.8973756862249</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.7242084392494</v>
+        <v>272.1801524629396</v>
       </c>
       <c r="AD7" t="n">
-        <v>151676.6189903442</v>
+        <v>219914.9786012564</v>
       </c>
       <c r="AE7" t="n">
-        <v>207530.6416026636</v>
+        <v>300897.3756862249</v>
       </c>
       <c r="AF7" t="n">
         <v>1.188786822096409e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>187724.2084392494</v>
+        <v>272180.1524629397</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.9843953033156</v>
+        <v>219.2227549142277</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.5835106153177</v>
+        <v>299.950244698879</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.8674703040288</v>
+        <v>271.3234143277191</v>
       </c>
       <c r="AD8" t="n">
-        <v>150984.3953033156</v>
+        <v>219222.7549142278</v>
       </c>
       <c r="AE8" t="n">
-        <v>206583.5106153177</v>
+        <v>299950.244698879</v>
       </c>
       <c r="AF8" t="n">
         <v>1.202729406378836e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>186867.4703040288</v>
+        <v>271323.4143277191</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>151.0678128038877</v>
+        <v>219.3061724147999</v>
       </c>
       <c r="AB9" t="n">
-        <v>206.6976461197208</v>
+        <v>300.0643802032821</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.9707128760819</v>
+        <v>271.4266568997721</v>
       </c>
       <c r="AD9" t="n">
-        <v>151067.8128038877</v>
+        <v>219306.1724147999</v>
       </c>
       <c r="AE9" t="n">
-        <v>206697.6461197208</v>
+        <v>300064.3802032821</v>
       </c>
       <c r="AF9" t="n">
         <v>1.20135729856993e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>186970.7128760819</v>
+        <v>271426.6568997721</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6191975588834</v>
+        <v>223.7088026349693</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9790985993414</v>
+        <v>306.0882531008522</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.7024969085229</v>
+        <v>276.8756198225587</v>
       </c>
       <c r="AD2" t="n">
-        <v>147619.1975588834</v>
+        <v>223708.8026349693</v>
       </c>
       <c r="AE2" t="n">
-        <v>201979.0985993414</v>
+        <v>306088.2531008522</v>
       </c>
       <c r="AF2" t="n">
         <v>1.435614675978003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>182702.4969085229</v>
+        <v>276875.6198225587</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.1557358345467</v>
+        <v>202.7597643402075</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.2942845358732</v>
+        <v>277.4248546996311</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.5146194854924</v>
+        <v>250.9478159354086</v>
       </c>
       <c r="AD3" t="n">
-        <v>136155.7358345467</v>
+        <v>202759.7643402074</v>
       </c>
       <c r="AE3" t="n">
-        <v>186294.2845358732</v>
+        <v>277424.854699631</v>
       </c>
       <c r="AF3" t="n">
         <v>1.541215300282414e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>168514.6194854924</v>
+        <v>250947.8159354086</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.8094930483609</v>
+        <v>191.8606251758921</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.4522957637747</v>
+        <v>262.512171658938</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.8484275365549</v>
+        <v>237.4583784340325</v>
       </c>
       <c r="AD4" t="n">
-        <v>134809.4930483609</v>
+        <v>191860.6251758921</v>
       </c>
       <c r="AE4" t="n">
-        <v>184452.2957637747</v>
+        <v>262512.1716589381</v>
       </c>
       <c r="AF4" t="n">
         <v>1.602671841426231e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>166848.4275365549</v>
+        <v>237458.3784340326</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.7772668965783</v>
+        <v>191.8283990241095</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.4082025211883</v>
+        <v>262.4680784163517</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.8085424911557</v>
+        <v>237.4184933886334</v>
       </c>
       <c r="AD5" t="n">
-        <v>134777.2668965783</v>
+        <v>191828.3990241095</v>
       </c>
       <c r="AE5" t="n">
-        <v>184408.2025211883</v>
+        <v>262468.0784163517</v>
       </c>
       <c r="AF5" t="n">
         <v>1.603791743449071e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>166808.5424911557</v>
+        <v>237418.4933886334</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.4142506123815</v>
+        <v>199.786696435338</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.2257046779737</v>
+        <v>273.3569720296917</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.4981988280696</v>
+        <v>247.2681662781779</v>
       </c>
       <c r="AD2" t="n">
-        <v>143414.2506123815</v>
+        <v>199786.696435338</v>
       </c>
       <c r="AE2" t="n">
-        <v>196225.7046779736</v>
+        <v>273356.9720296917</v>
       </c>
       <c r="AF2" t="n">
         <v>1.731212986519998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>177498.1988280696</v>
+        <v>247268.1662781779</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.977905964233</v>
+        <v>188.3161863684087</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.5779933944672</v>
+        <v>257.6625141129375</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.3438831477553</v>
+        <v>233.0715653976837</v>
       </c>
       <c r="AD3" t="n">
-        <v>131977.905964233</v>
+        <v>188316.1863684087</v>
       </c>
       <c r="AE3" t="n">
-        <v>180577.9933944672</v>
+        <v>257662.5141129375</v>
       </c>
       <c r="AF3" t="n">
         <v>1.861239956291825e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>163343.8831477553</v>
+        <v>233071.5653976837</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.7831092412008</v>
+        <v>188.1213896453765</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.3114639241898</v>
+        <v>257.3959846426601</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.1027908760446</v>
+        <v>232.830473125973</v>
       </c>
       <c r="AD4" t="n">
-        <v>131783.1092412008</v>
+        <v>188121.3896453765</v>
       </c>
       <c r="AE4" t="n">
-        <v>180311.4639241898</v>
+        <v>257395.9846426601</v>
       </c>
       <c r="AF4" t="n">
         <v>1.881195799251172e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163102.7908760446</v>
+        <v>232830.473125973</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.2033456331</v>
+        <v>185.9718303313087</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.1499616613357</v>
+        <v>254.4548627572899</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.1475793554692</v>
+        <v>230.1700477854512</v>
       </c>
       <c r="AD2" t="n">
-        <v>130203.3456331</v>
+        <v>185971.8303313087</v>
       </c>
       <c r="AE2" t="n">
-        <v>178149.9616613358</v>
+        <v>254454.8627572899</v>
       </c>
       <c r="AF2" t="n">
         <v>2.089135398990961e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>161147.5793554692</v>
+        <v>230170.0477854512</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.3014961129777</v>
+        <v>185.3749371989813</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.6018143091408</v>
+        <v>253.6381672405734</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.8924481716192</v>
+        <v>229.4312965426105</v>
       </c>
       <c r="AD3" t="n">
-        <v>120301.4961129777</v>
+        <v>185374.9371989813</v>
       </c>
       <c r="AE3" t="n">
-        <v>164601.8143091408</v>
+        <v>253638.1672405734</v>
       </c>
       <c r="AF3" t="n">
         <v>2.134663178206885e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>148892.4481716192</v>
+        <v>229431.2965426105</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.8030357817932</v>
+        <v>180.4420086872217</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.129263594811</v>
+        <v>246.8887168253408</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.7014882623089</v>
+        <v>223.3260042020923</v>
       </c>
       <c r="AD2" t="n">
-        <v>125803.0357817932</v>
+        <v>180442.0086872217</v>
       </c>
       <c r="AE2" t="n">
-        <v>172129.263594811</v>
+        <v>246888.7168253408</v>
       </c>
       <c r="AF2" t="n">
         <v>2.770781835755912e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155701.4882623089</v>
+        <v>223326.0042020923</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.1166137815552</v>
+        <v>248.9786100928065</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.4975442249124</v>
+        <v>340.6635184898723</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.021989127034</v>
+        <v>308.1510704095515</v>
       </c>
       <c r="AD2" t="n">
-        <v>172116.6137815552</v>
+        <v>248978.6100928065</v>
       </c>
       <c r="AE2" t="n">
-        <v>235497.5442249124</v>
+        <v>340663.5184898723</v>
       </c>
       <c r="AF2" t="n">
         <v>1.193462984079712e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>213021.989127034</v>
+        <v>308151.0704095515</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.2300810492212</v>
+        <v>216.5731273947407</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1831804579844</v>
+        <v>296.3249074334024</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.6962242880261</v>
+        <v>268.0440741626655</v>
       </c>
       <c r="AD3" t="n">
-        <v>149230.0810492212</v>
+        <v>216573.1273947407</v>
       </c>
       <c r="AE3" t="n">
-        <v>204183.1804579844</v>
+        <v>296324.9074334024</v>
       </c>
       <c r="AF3" t="n">
         <v>1.340810279479545e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>184696.2242880261</v>
+        <v>268044.0741626655</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.1767786192107</v>
+        <v>205.4856595459494</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.0595644359641</v>
+        <v>281.1545447781343</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.0159849530142</v>
+        <v>254.3215496274737</v>
       </c>
       <c r="AD4" t="n">
-        <v>138176.7786192107</v>
+        <v>205485.6595459494</v>
       </c>
       <c r="AE4" t="n">
-        <v>189059.5644359641</v>
+        <v>281154.5447781343</v>
       </c>
       <c r="AF4" t="n">
         <v>1.396326497853079e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>171015.9849530142</v>
+        <v>254321.5496274737</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.6196604246119</v>
+        <v>204.9285413513505</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.2972907437942</v>
+        <v>280.3922710859645</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.3264615921669</v>
+        <v>253.6320262666265</v>
       </c>
       <c r="AD5" t="n">
-        <v>137619.6604246119</v>
+        <v>204928.5413513505</v>
       </c>
       <c r="AE5" t="n">
-        <v>188297.2907437942</v>
+        <v>280392.2710859645</v>
       </c>
       <c r="AF5" t="n">
         <v>1.40486584847917e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>170326.4615921669</v>
+        <v>253632.0262666265</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.2218551880231</v>
+        <v>204.5307361147617</v>
       </c>
       <c r="AB6" t="n">
-        <v>187.7529960691653</v>
+        <v>279.8479764113355</v>
       </c>
       <c r="AC6" t="n">
-        <v>169.834113637362</v>
+        <v>253.1396783118216</v>
       </c>
       <c r="AD6" t="n">
-        <v>137221.8551880231</v>
+        <v>204530.7361147617</v>
       </c>
       <c r="AE6" t="n">
-        <v>187752.9960691653</v>
+        <v>279847.9764113355</v>
       </c>
       <c r="AF6" t="n">
         <v>1.423621797898334e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>169834.113637362</v>
+        <v>253139.6783118216</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.4115776036307</v>
+        <v>277.2690535583889</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.8437178950751</v>
+        <v>379.3717513259231</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.8038963978123</v>
+        <v>343.1650438309733</v>
       </c>
       <c r="AD2" t="n">
-        <v>199411.5776036307</v>
+        <v>277269.0535583889</v>
       </c>
       <c r="AE2" t="n">
-        <v>272843.7178950752</v>
+        <v>379371.7513259231</v>
       </c>
       <c r="AF2" t="n">
         <v>9.574979856367035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>246803.8963978123</v>
+        <v>343165.0438309733</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.5349450664287</v>
+        <v>231.6219268094428</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7557264923784</v>
+        <v>316.9153386987616</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.4007939991447</v>
+        <v>286.6693835669171</v>
       </c>
       <c r="AD3" t="n">
-        <v>163534.9450664287</v>
+        <v>231621.9268094428</v>
       </c>
       <c r="AE3" t="n">
-        <v>223755.7264923784</v>
+        <v>316915.3386987615</v>
       </c>
       <c r="AF3" t="n">
         <v>1.138610051171989e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>202400.7939991447</v>
+        <v>286669.3835669172</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.6537109815992</v>
+        <v>230.4760104877159</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.8675419713543</v>
+        <v>315.3474454331155</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.9335169131042</v>
+        <v>285.2511278339919</v>
       </c>
       <c r="AD4" t="n">
-        <v>152653.7109815992</v>
+        <v>230476.0104877159</v>
       </c>
       <c r="AE4" t="n">
-        <v>208867.5419713543</v>
+        <v>315347.4454331155</v>
       </c>
       <c r="AF4" t="n">
         <v>1.177951616518821e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>188933.5169131042</v>
+        <v>285251.1278339918</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.8217033301485</v>
+        <v>219.976004880867</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.729152397053</v>
+        <v>300.9808745342776</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.903773642034</v>
+        <v>272.2556822981255</v>
       </c>
       <c r="AD5" t="n">
-        <v>151821.7033301485</v>
+        <v>219976.004880867</v>
       </c>
       <c r="AE5" t="n">
-        <v>207729.152397053</v>
+        <v>300980.8745342776</v>
       </c>
       <c r="AF5" t="n">
         <v>1.202156489444005e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187903.773642034</v>
+        <v>272255.6822981255</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.8639502068223</v>
+        <v>218.9167665310556</v>
       </c>
       <c r="AB6" t="n">
-        <v>206.418712320633</v>
+        <v>299.5315778937684</v>
       </c>
       <c r="AC6" t="n">
-        <v>186.7184001272929</v>
+        <v>270.9447044948855</v>
       </c>
       <c r="AD6" t="n">
-        <v>150863.9502068223</v>
+        <v>218916.7665310556</v>
       </c>
       <c r="AE6" t="n">
-        <v>206418.712320633</v>
+        <v>299531.5778937684</v>
       </c>
       <c r="AF6" t="n">
         <v>1.230581021951626e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>186718.4001272929</v>
+        <v>270944.7044948855</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.5867178917435</v>
+        <v>218.6395342159768</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.0393908365159</v>
+        <v>299.1522564096512</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.3752805532387</v>
+        <v>270.6015849208313</v>
       </c>
       <c r="AD7" t="n">
-        <v>150586.7178917435</v>
+        <v>218639.5342159768</v>
       </c>
       <c r="AE7" t="n">
-        <v>206039.3908365159</v>
+        <v>299152.2564096512</v>
       </c>
       <c r="AF7" t="n">
         <v>1.227178882109453e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>186375.2805532387</v>
+        <v>270601.5849208313</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.189682957423</v>
+        <v>208.5745013262582</v>
       </c>
       <c r="AB8" t="n">
-        <v>205.4961501234338</v>
+        <v>285.3808343720326</v>
       </c>
       <c r="AC8" t="n">
-        <v>185.8838859713699</v>
+        <v>258.1444880741664</v>
       </c>
       <c r="AD8" t="n">
-        <v>150189.682957423</v>
+        <v>208574.5013262582</v>
       </c>
       <c r="AE8" t="n">
-        <v>205496.1501234338</v>
+        <v>285380.8343720326</v>
       </c>
       <c r="AF8" t="n">
         <v>1.241718156259369e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>185883.8859713699</v>
+        <v>258144.4880741664</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.9711775395853</v>
+        <v>187.1446976249636</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.6228343319414</v>
+        <v>256.059631531721</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.4342690904912</v>
+        <v>231.6216596803581</v>
       </c>
       <c r="AD2" t="n">
-        <v>123971.1775395853</v>
+        <v>187144.6976249637</v>
       </c>
       <c r="AE2" t="n">
-        <v>169622.8343319414</v>
+        <v>256059.631531721</v>
       </c>
       <c r="AF2" t="n">
         <v>3.138386478297697e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>153434.2690904912</v>
+        <v>231621.6596803581</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.0469558885454</v>
+        <v>211.0472256856609</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.4596440666931</v>
+        <v>288.7641249294655</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.518934176884</v>
+        <v>261.2048821292771</v>
       </c>
       <c r="AD2" t="n">
-        <v>145046.9558885454</v>
+        <v>211047.225685661</v>
       </c>
       <c r="AE2" t="n">
-        <v>198459.6440666931</v>
+        <v>288764.1249294655</v>
       </c>
       <c r="AF2" t="n">
         <v>1.609882338928028e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179518.934176884</v>
+        <v>261204.882129277</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1742662289932</v>
+        <v>189.7655935843752</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.2149062884012</v>
+        <v>259.6456570091554</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.8245713725144</v>
+        <v>234.8654399192457</v>
       </c>
       <c r="AD3" t="n">
-        <v>133174.2662289932</v>
+        <v>189765.5935843752</v>
       </c>
       <c r="AE3" t="n">
-        <v>182214.9062884012</v>
+        <v>259645.6570091554</v>
       </c>
       <c r="AF3" t="n">
         <v>1.758819681253542e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>164824.5713725144</v>
+        <v>234865.4399192457</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.9550608445588</v>
+        <v>189.5463881999408</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.9149798107591</v>
+        <v>259.3457305315133</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.553269456949</v>
+        <v>234.5941380036802</v>
       </c>
       <c r="AD4" t="n">
-        <v>132955.0608445588</v>
+        <v>189546.3881999408</v>
       </c>
       <c r="AE4" t="n">
-        <v>181914.9798107591</v>
+        <v>259345.7305315133</v>
       </c>
       <c r="AF4" t="n">
         <v>1.764001340061204e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>164553.2694569489</v>
+        <v>234594.1380036802</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.161038321727</v>
+        <v>225.978354157877</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.7711543211337</v>
+        <v>309.1935536200396</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.9873809965218</v>
+        <v>279.6845548185126</v>
       </c>
       <c r="AD2" t="n">
-        <v>159161.038321727</v>
+        <v>225978.354157877</v>
       </c>
       <c r="AE2" t="n">
-        <v>217771.1543211337</v>
+        <v>309193.5536200396</v>
       </c>
       <c r="AF2" t="n">
         <v>1.335489314653843e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>196987.3809965218</v>
+        <v>279684.5548185126</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.9386746698096</v>
+        <v>203.7891448948832</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.365535991103</v>
+        <v>278.8332985876027</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.4836322053463</v>
+        <v>252.2218399154762</v>
       </c>
       <c r="AD3" t="n">
-        <v>136938.6746698096</v>
+        <v>203789.1448948832</v>
       </c>
       <c r="AE3" t="n">
-        <v>187365.535991103</v>
+        <v>278833.2985876027</v>
       </c>
       <c r="AF3" t="n">
         <v>1.486816380597678e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>169483.6322053462</v>
+        <v>252221.8399154762</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.108121640108</v>
+        <v>202.9585918651817</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.2291366944523</v>
+        <v>277.6968992909519</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.455689262621</v>
+        <v>251.193896972751</v>
       </c>
       <c r="AD4" t="n">
-        <v>136108.121640108</v>
+        <v>202958.5918651817</v>
       </c>
       <c r="AE4" t="n">
-        <v>186229.1366944523</v>
+        <v>277696.8992909519</v>
       </c>
       <c r="AF4" t="n">
         <v>1.51710697423103e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>168455.689262621</v>
+        <v>251193.896972751</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.3365680838022</v>
+        <v>192.5989359708301</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.1734630801745</v>
+        <v>263.5223610605452</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.5007676564424</v>
+        <v>238.3721567769604</v>
       </c>
       <c r="AD5" t="n">
-        <v>135336.5680838022</v>
+        <v>192598.9359708301</v>
       </c>
       <c r="AE5" t="n">
-        <v>185173.4630801746</v>
+        <v>263522.3610605452</v>
       </c>
       <c r="AF5" t="n">
         <v>1.55045625128017e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>167500.7676564424</v>
+        <v>238372.1567769604</v>
       </c>
     </row>
   </sheetData>
